--- a/data/output/FV2310_FV2304/PARTIN/37000.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37000.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="284">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="284">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -978,6 +978,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U301" totalsRowShown="0">
+  <autoFilter ref="A1:U301"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1267,7 +1297,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15285,5 +15318,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/PARTIN/37000.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37000.xlsx
@@ -2321,7 +2321,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3413,7 +3413,7 @@
         <v>255</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3615,7 +3615,7 @@
         <v>255</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5037,7 +5037,7 @@
         <v>259</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5971,24 +5971,24 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>241</v>
       </c>
       <c r="K77" s="6" t="s">
@@ -5997,21 +5997,21 @@
       <c r="L77" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>241</v>
       </c>
       <c r="V77" s="6" t="s">
@@ -6195,7 +6195,7 @@
         <v>262</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7195,7 +7195,7 @@
         <v>259</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8073,21 +8073,21 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="C119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="6" t="s">
         <v>238</v>
       </c>
@@ -8097,18 +8097,18 @@
       <c r="L119" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N119" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="N119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
       <c r="U119" s="6" t="s">
         <v>274</v>
       </c>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8973,22 +8973,22 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>251</v>
       </c>
       <c r="K137" s="6" t="s">
@@ -8997,19 +8997,19 @@
       <c r="L137" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="N137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>251</v>
       </c>
       <c r="V137" s="6" t="s">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9875,21 +9875,21 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
+      <c r="C155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
       <c r="J155" s="6" t="s">
         <v>238</v>
       </c>
@@ -9899,18 +9899,18 @@
       <c r="L155" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
+      <c r="N155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
       <c r="U155" s="6" t="s">
         <v>274</v>
       </c>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10777,22 +10777,22 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="C173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>238</v>
       </c>
       <c r="K173" s="6" t="s">
@@ -10801,19 +10801,19 @@
       <c r="L173" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N173" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="N173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>238</v>
       </c>
       <c r="V173" s="6" t="s">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11679,21 +11679,21 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
+      <c r="C191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
       <c r="J191" s="6" t="s">
         <v>238</v>
       </c>
@@ -11703,18 +11703,18 @@
       <c r="L191" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
+      <c r="N191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
       <c r="U191" s="6" t="s">
         <v>274</v>
       </c>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12579,21 +12579,21 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="C209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
       <c r="J209" s="6" t="s">
         <v>238</v>
       </c>
@@ -12603,18 +12603,18 @@
       <c r="L209" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
+      <c r="N209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
       <c r="U209" s="6" t="s">
         <v>274</v>
       </c>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -13481,21 +13481,21 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
+      <c r="C227" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
       <c r="J227" s="6" t="s">
         <v>238</v>
       </c>
@@ -13505,18 +13505,18 @@
       <c r="L227" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N227" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
+      <c r="N227" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
       <c r="U227" s="6" t="s">
         <v>274</v>
       </c>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -14381,22 +14381,22 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5" t="s">
+      <c r="C245" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2" t="s">
         <v>238</v>
       </c>
       <c r="K245" s="6" t="s">
@@ -14405,19 +14405,19 @@
       <c r="L245" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M245" s="5" t="s">
+      <c r="M245" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N245" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5" t="s">
+      <c r="N245" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2" t="s">
         <v>238</v>
       </c>
       <c r="V245" s="6" t="s">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -15283,21 +15283,21 @@
       <c r="V262" s="5"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
+      <c r="C263" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
       <c r="J263" s="6" t="s">
         <v>238</v>
       </c>
@@ -15307,18 +15307,18 @@
       <c r="L263" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M263" s="5" t="s">
+      <c r="M263" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N263" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
+      <c r="N263" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O263" s="2"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
       <c r="U263" s="6" t="s">
         <v>274</v>
       </c>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16205,7 +16205,7 @@
         <v>259</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -16847,7 +16847,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N299" s="2"/>
